--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25858B-AF13-462F-85CF-4EA4EC8D6A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596ECAB2-E74D-4652-B26F-08678608B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>task specific</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Overfitting</t>
+  </si>
+  <si>
+    <t>hyper parameter</t>
+  </si>
+  <si>
+    <t>Stochastic Weight Averaging</t>
+  </si>
+  <si>
+    <t>Prompt selection</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Class feature (CLS)</t>
   </si>
 </sst>
 </file>
@@ -548,10 +566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -844,6 +862,36 @@
         <v>56</v>
       </c>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596ECAB2-E74D-4652-B26F-08678608B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D340A8-9E2A-495E-A14C-1F25D384233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>task specific</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Class feature (CLS)</t>
+  </si>
+  <si>
+    <t>embedding size</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -892,6 +895,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D340A8-9E2A-495E-A14C-1F25D384233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8EC0B-DD4B-4D37-8EEA-BA6D7D8708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>task specific</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>embedding size</t>
+  </si>
+  <si>
+    <t>Task identity</t>
+  </si>
+  <si>
+    <t>Technique</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -900,6 +906,16 @@
         <v>63</v>
       </c>
     </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E8EC0B-DD4B-4D37-8EEA-BA6D7D8708D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BA97E-515D-45FA-8308-5D9F2BC17E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>task specific</t>
   </si>
@@ -66,9 +66,6 @@
     <t>learnable context vectors</t>
   </si>
   <si>
-    <t>learning to prompt for continual learning</t>
-  </si>
-  <si>
     <t>attention distillation</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>lightweight decoder</t>
   </si>
   <si>
-    <t>knowledge distillation</t>
-  </si>
-  <si>
     <t>prompt tuning</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>embeding space</t>
   </si>
   <si>
-    <t>contrastive language-image pre-training</t>
-  </si>
-  <si>
     <t>retraining</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>Learning without forgetting (LWF)</t>
   </si>
   <si>
-    <t>Optimization based approach</t>
-  </si>
-  <si>
     <t>Architecture based</t>
   </si>
   <si>
@@ -223,6 +211,198 @@
   </si>
   <si>
     <t>Technique</t>
+  </si>
+  <si>
+    <t>وابسته به وظیفه</t>
+  </si>
+  <si>
+    <t>مستقل از وظیفه</t>
+  </si>
+  <si>
+    <t>مخلوط خبره‌ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سازگار‌سازی رتبه‌پایین </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیم پیشوند </t>
+  </si>
+  <si>
+    <t>استخر پرامپت</t>
+  </si>
+  <si>
+    <t>لایه‌های کدگذار پیش‌آموخته</t>
+  </si>
+  <si>
+    <t>نمونه‌های‌ اولیه</t>
+  </si>
+  <si>
+    <t>یکپارچه‌سازی دانش بدون تداخل و آگاه از توزیع</t>
+  </si>
+  <si>
+    <t>پرامپت‌های مکانی</t>
+  </si>
+  <si>
+    <t>نشانه‌های ورودی</t>
+  </si>
+  <si>
+    <t>بهینه‌سازی بافت</t>
+  </si>
+  <si>
+    <t>بردارهای بافت یادگرفتنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقطیر توجه </t>
+  </si>
+  <si>
+    <t>پیمانه</t>
+  </si>
+  <si>
+    <t>رمزگشای سبک</t>
+  </si>
+  <si>
+    <t>تقطیر دانش</t>
+  </si>
+  <si>
+    <t>تنظیم پرامپت</t>
+  </si>
+  <si>
+    <t>وفق‌دهنده‌ی ویژگی</t>
+  </si>
+  <si>
+    <t>پیش آموزش مدل‌های بینایی-زبان</t>
+  </si>
+  <si>
+    <t>اهداف تقابلی</t>
+  </si>
+  <si>
+    <t>اهداف مولد</t>
+  </si>
+  <si>
+    <t>اهداف هم‌ترازی</t>
+  </si>
+  <si>
+    <t>تطابق واژه-ناحیه</t>
+  </si>
+  <si>
+    <t>تطابق تصویر-متن</t>
+  </si>
+  <si>
+    <t>واژگان-باز</t>
+  </si>
+  <si>
+    <t>مدل‌های زبانی بزرگ</t>
+  </si>
+  <si>
+    <t>پردازش زبان طبیعی</t>
+  </si>
+  <si>
+    <t>مدل‌های بینایی-زبان</t>
+  </si>
+  <si>
+    <t>فضای مشترک نهفته</t>
+  </si>
+  <si>
+    <t>بازآموزی</t>
+  </si>
+  <si>
+    <t>یادگیری بدون نمونه</t>
+  </si>
+  <si>
+    <t>حداکثر تداخل ارزیابی</t>
+  </si>
+  <si>
+    <t>میانگین حافظه رخدادی گرادیان</t>
+  </si>
+  <si>
+    <t>طبقه بندی افزایشی و یادگیری بازنمایی</t>
+  </si>
+  <si>
+    <t>تثبیت وزن کشسان</t>
+  </si>
+  <si>
+    <t>یادگیری بدون فراموشی</t>
+  </si>
+  <si>
+    <t>مبتنی بر معماری</t>
+  </si>
+  <si>
+    <t>Optimization based</t>
+  </si>
+  <si>
+    <t>مبتنی بر بهینه‌سازی</t>
+  </si>
+  <si>
+    <t>مبتنی بر تنظیم</t>
+  </si>
+  <si>
+    <t>بازپخش مولد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازپخش ویژگی </t>
+  </si>
+  <si>
+    <t>بازپخش تجربه</t>
+  </si>
+  <si>
+    <t>یادگیری افزایشی وظیفه</t>
+  </si>
+  <si>
+    <t>یادگیری افزایشی دامنه</t>
+  </si>
+  <si>
+    <t>یادگیري نمونه‌اي-افزاینده</t>
+  </si>
+  <si>
+    <t>یادگیری افزایشی</t>
+  </si>
+  <si>
+    <t>یادگیری مستمر</t>
+  </si>
+  <si>
+    <t>یادگیری مادام‌العمر</t>
+  </si>
+  <si>
+    <t>وصله</t>
+  </si>
+  <si>
+    <t>پرسمان</t>
+  </si>
+  <si>
+    <t>منظم‌سازی وزن‌های میان‌یابی</t>
+  </si>
+  <si>
+    <t>پارامتر</t>
+  </si>
+  <si>
+    <t>بیش‌برازش</t>
+  </si>
+  <si>
+    <t>ابر پارامتر</t>
+  </si>
+  <si>
+    <t>میانگین‌گیری تصادفی وزن‌ها</t>
+  </si>
+  <si>
+    <t>انتخاب پرامپت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسته‌بند </t>
+  </si>
+  <si>
+    <t>منجمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویژگی کلاس </t>
+  </si>
+  <si>
+    <t>اندازه تعبیه</t>
+  </si>
+  <si>
+    <t>شناسه‌ی وظیفه</t>
+  </si>
+  <si>
+    <t>فن</t>
   </si>
 </sst>
 </file>
@@ -575,345 +755,520 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.19921875" customWidth="1"/>
+    <col min="1" max="1" width="66.796875" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
+      <c r="B63" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1BA97E-515D-45FA-8308-5D9F2BC17E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA123BF8-16CD-4B73-9DCF-3AFA2027465B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>task specific</t>
   </si>
@@ -403,6 +403,24 @@
   </si>
   <si>
     <t>فن</t>
+  </si>
+  <si>
+    <t>Flat minimum</t>
+  </si>
+  <si>
+    <t>کمینه تخت</t>
+  </si>
+  <si>
+    <t>Sharp minimum</t>
+  </si>
+  <si>
+    <t>کمینه تیز</t>
+  </si>
+  <si>
+    <t>Underfitting</t>
+  </si>
+  <si>
+    <t>زیربرازش</t>
   </si>
 </sst>
 </file>
@@ -755,10 +773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1271,6 +1289,30 @@
         <v>125</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_latex/footnotes.xlsx
+++ b/project_latex/footnotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master courses and files\master courses\master project\thesis report\parisa master thesis\project_latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA123BF8-16CD-4B73-9DCF-3AFA2027465B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E6A18-5AF8-4860-A6E9-25FA392003DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83D7A62A-F015-4500-931D-93DF1FFC8BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>task specific</t>
   </si>
@@ -78,12 +78,6 @@
     <t>prompt tuning</t>
   </si>
   <si>
-    <t>feature adapter</t>
-  </si>
-  <si>
-    <t>vision-language model pre-training</t>
-  </si>
-  <si>
     <t>contrastive objectives</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>تنظیم پرامپت</t>
   </si>
   <si>
-    <t>وفق‌دهنده‌ی ویژگی</t>
-  </si>
-  <si>
     <t>پیش آموزش مدل‌های بینایی-زبان</t>
   </si>
   <si>
@@ -421,6 +412,51 @@
   </si>
   <si>
     <t>زیربرازش</t>
+  </si>
+  <si>
+    <t>Deep Nueral Networks (DNNs)</t>
+  </si>
+  <si>
+    <t>شبکه‌های عصبی عمیق</t>
+  </si>
+  <si>
+    <t>vision-language model pretraining</t>
+  </si>
+  <si>
+    <t>pretrained</t>
+  </si>
+  <si>
+    <t>از پیش اموزش دیده</t>
+  </si>
+  <si>
+    <t>Taks</t>
+  </si>
+  <si>
+    <t>وظایف</t>
+  </si>
+  <si>
+    <t>تنظیم دقیق</t>
+  </si>
+  <si>
+    <t>Fine-tune</t>
+  </si>
+  <si>
+    <t>continual learning</t>
+  </si>
+  <si>
+    <t>یادگیری پیوسته</t>
+  </si>
+  <si>
+    <t>Catastrophic forgetting</t>
+  </si>
+  <si>
+    <t>فراموشی فاجعه‌بار</t>
+  </si>
+  <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>وفق‌دهنده</t>
   </si>
 </sst>
 </file>
@@ -773,10 +809,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD2731-45ED-45A9-A4E5-00F077C0CA39}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,399 +954,447 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
-        <v>131</v>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
